--- a/assignment_1/result_summary.xlsx
+++ b/assignment_1/result_summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,11 +431,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2001600672"/>
-        <c:axId val="1102032384"/>
+        <c:axId val="-2087475152"/>
+        <c:axId val="-2087471824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2001600672"/>
+        <c:axId val="-2087475152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -478,7 +478,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1102032384"/>
+        <c:crossAx val="-2087471824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -486,7 +486,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1102032384"/>
+        <c:axId val="-2087471824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -537,7 +537,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2001600672"/>
+        <c:crossAx val="-2087475152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -997,11 +997,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2057054928"/>
-        <c:axId val="-2056325136"/>
+        <c:axId val="-2085647136"/>
+        <c:axId val="-2085640080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2057054928"/>
+        <c:axId val="-2085647136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1058,12 +1058,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2056325136"/>
+        <c:crossAx val="-2085640080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2056325136"/>
+        <c:axId val="-2085640080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1120,7 +1120,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2057054928"/>
+        <c:crossAx val="-2085647136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2902,11 +2902,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1881861440"/>
-        <c:axId val="-2004563808"/>
+        <c:axId val="-2084486432"/>
+        <c:axId val="-2084483216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1881861440"/>
+        <c:axId val="-2084486432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2963,12 +2963,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2004563808"/>
+        <c:crossAx val="-2084483216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2004563808"/>
+        <c:axId val="-2084483216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3019,7 +3019,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1881861440"/>
+        <c:crossAx val="-2084486432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4852,8 +4852,8 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -5142,7 +5142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
@@ -5319,8 +5319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B245"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6655,8 +6655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/assignment_1/result_summary.xlsx
+++ b/assignment_1/result_summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,8 +94,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -103,9 +107,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -207,19 +215,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
             <c:spPr>
@@ -429,13 +425,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2087475152"/>
-        <c:axId val="-2087471824"/>
+        <c:axId val="-2109590240"/>
+        <c:axId val="2138428112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2087475152"/>
+        <c:axId val="-2109590240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -478,7 +473,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087471824"/>
+        <c:crossAx val="2138428112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -486,7 +481,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2087471824"/>
+        <c:axId val="2138428112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -537,7 +532,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087475152"/>
+        <c:crossAx val="-2109590240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -587,6 +582,402 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$1:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2573.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1307.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>901.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>687.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>551.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>469.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>414.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>369.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>334.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>308.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>285.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>265.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>252.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>235.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>225.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>212.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>204.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>196.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>181.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2097863824"/>
+        <c:axId val="-2097189280"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2097863824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2097189280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2097189280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2097863824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -997,11 +1388,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2085647136"/>
-        <c:axId val="-2085640080"/>
+        <c:axId val="2138464128"/>
+        <c:axId val="2138471168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2085647136"/>
+        <c:axId val="2138464128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1058,12 +1449,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2085640080"/>
+        <c:crossAx val="2138471168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2085640080"/>
+        <c:axId val="2138471168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1120,7 +1511,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2085647136"/>
+        <c:crossAx val="2138464128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1169,7 +1560,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2902,11 +3293,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2084486432"/>
-        <c:axId val="-2084483216"/>
+        <c:axId val="-2136726464"/>
+        <c:axId val="-2136723248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2084486432"/>
+        <c:axId val="-2136726464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2963,12 +3354,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2084483216"/>
+        <c:crossAx val="-2136723248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2084483216"/>
+        <c:axId val="-2136723248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3019,7 +3410,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2084486432"/>
+        <c:crossAx val="-2136726464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3233,6 +3624,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -4253,6 +4684,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="244">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4799,6 +5746,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5142,8 +6119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5319,7 +6296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -6655,7 +7632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="E2" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
